--- a/TA - Year 1/HW set 1 due 9-5/m98f2025nbp1A-K.xlsx
+++ b/TA - Year 1/HW set 1 due 9-5/m98f2025nbp1A-K.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ndusbpos-my.sharepoint.com/personal/kathy_coykendall_ndus_edu/Documents/Desktop/Fall 2025/m98f2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baneg\Desktop\git\PhD\TA - Year 1\HW set 1 due 9-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7B4B9AC-D4E4-4987-95A0-23163A4531E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9012AFB-9EDE-4E8D-8CA7-4997E3C1BAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{81381A1C-3CD7-4546-9677-9B64B42364DA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{81381A1C-3CD7-4546-9677-9B64B42364DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1396,22 +1396,22 @@
   <dimension ref="A1:C188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C3">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1419,15 +1419,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1435,15 +1438,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1451,15 +1457,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1467,15 +1476,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1483,23 +1495,29 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1507,15 +1525,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1523,23 +1544,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1547,15 +1574,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1563,7 +1593,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1571,31 +1601,40 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>40</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>42</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1603,23 +1642,29 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>46</v>
       </c>
       <c r="B29" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>48</v>
       </c>
       <c r="B30" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1627,7 +1672,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -1635,39 +1680,51 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>54</v>
       </c>
       <c r="B33" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>56</v>
       </c>
       <c r="B34" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>58</v>
       </c>
       <c r="B35" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>60</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -1675,7 +1732,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -1683,7 +1740,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -1691,23 +1748,29 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>66</v>
       </c>
       <c r="B40" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>69</v>
       </c>
       <c r="B41" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -1715,7 +1778,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -1723,55 +1786,73 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>75</v>
       </c>
       <c r="B44" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>77</v>
       </c>
       <c r="B45" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>79</v>
       </c>
       <c r="B46" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>81</v>
       </c>
       <c r="B47" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>83</v>
       </c>
       <c r="B48" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>85</v>
       </c>
       <c r="B49" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -1779,31 +1860,40 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>89</v>
       </c>
       <c r="B51" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>91</v>
       </c>
       <c r="B52" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>93</v>
       </c>
       <c r="B53" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -1811,31 +1901,40 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>97</v>
       </c>
       <c r="B55" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>99</v>
       </c>
       <c r="B56" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>101</v>
       </c>
       <c r="B57" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -1843,15 +1942,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>105</v>
       </c>
       <c r="B59" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>107</v>
       </c>
@@ -1859,47 +1961,62 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>109</v>
       </c>
       <c r="B61" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>111</v>
       </c>
       <c r="B62" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>113</v>
       </c>
       <c r="B63" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>115</v>
       </c>
       <c r="B64" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>117</v>
       </c>
       <c r="B65" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>119</v>
       </c>
@@ -1907,23 +2024,29 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>121</v>
       </c>
       <c r="B67" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>123</v>
       </c>
       <c r="B68" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>124</v>
       </c>
@@ -1931,23 +2054,29 @@
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>126</v>
       </c>
       <c r="B70" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>127</v>
       </c>
       <c r="B71" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>128</v>
       </c>
@@ -1955,63 +2084,84 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>130</v>
       </c>
       <c r="B73" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>132</v>
       </c>
       <c r="B74" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>134</v>
       </c>
       <c r="B75" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>136</v>
       </c>
       <c r="B76" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>138</v>
       </c>
       <c r="B77" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>139</v>
       </c>
       <c r="B78" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>141</v>
       </c>
       <c r="B79" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>143</v>
       </c>
@@ -2019,15 +2169,18 @@
         <v>144</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>145</v>
       </c>
       <c r="B81" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>147</v>
       </c>
@@ -2035,31 +2188,40 @@
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>147</v>
       </c>
       <c r="B83" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>147</v>
       </c>
       <c r="B84" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>151</v>
       </c>
       <c r="B85" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -2067,39 +2229,51 @@
         <v>154</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>155</v>
       </c>
       <c r="B87" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>157</v>
       </c>
       <c r="B88" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>159</v>
       </c>
       <c r="B89" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>161</v>
       </c>
       <c r="B90" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>163</v>
       </c>
@@ -2107,23 +2281,29 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>165</v>
       </c>
       <c r="B92" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>167</v>
       </c>
       <c r="B93" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>169</v>
       </c>
@@ -2131,15 +2311,18 @@
         <v>170</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>171</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>172</v>
       </c>
@@ -2147,23 +2330,29 @@
         <v>173</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>174</v>
       </c>
       <c r="B97" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>176</v>
       </c>
       <c r="B98" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>178</v>
       </c>
@@ -2171,23 +2360,29 @@
         <v>179</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>180</v>
       </c>
       <c r="B100" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>181</v>
       </c>
       <c r="B101" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>183</v>
       </c>
@@ -2195,7 +2390,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>185</v>
       </c>
@@ -2203,7 +2398,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>187</v>
       </c>
@@ -2211,7 +2406,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>189</v>
       </c>
@@ -2219,15 +2414,18 @@
         <v>190</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>191</v>
       </c>
       <c r="B106" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>193</v>
       </c>
@@ -2235,7 +2433,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>195</v>
       </c>
@@ -2243,7 +2441,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>197</v>
       </c>
@@ -2251,7 +2449,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>199</v>
       </c>
@@ -2259,7 +2457,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>201</v>
       </c>
@@ -2267,7 +2465,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>203</v>
       </c>
@@ -2275,7 +2473,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>205</v>
       </c>
@@ -2283,7 +2481,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>207</v>
       </c>
@@ -2291,7 +2489,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>209</v>
       </c>
@@ -2299,7 +2497,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>211</v>
       </c>
@@ -2307,7 +2505,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>212</v>
       </c>
@@ -2315,7 +2513,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>144</v>
       </c>
@@ -2323,7 +2521,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>215</v>
       </c>
@@ -2331,7 +2529,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>217</v>
       </c>
@@ -2339,7 +2537,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>219</v>
       </c>
@@ -2347,7 +2545,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>221</v>
       </c>
@@ -2355,7 +2553,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>223</v>
       </c>
@@ -2363,7 +2561,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>225</v>
       </c>
@@ -2371,7 +2569,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>227</v>
       </c>
@@ -2379,7 +2577,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>229</v>
       </c>
@@ -2387,7 +2585,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>230</v>
       </c>
@@ -2395,7 +2593,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>232</v>
       </c>
@@ -2403,7 +2601,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>234</v>
       </c>
@@ -2411,7 +2609,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>236</v>
       </c>
@@ -2419,7 +2617,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>238</v>
       </c>
@@ -2427,7 +2625,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>240</v>
       </c>
@@ -2435,7 +2633,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>242</v>
       </c>
@@ -2443,7 +2641,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>244</v>
       </c>
@@ -2451,7 +2649,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>246</v>
       </c>
@@ -2459,7 +2657,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>248</v>
       </c>
@@ -2467,7 +2665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>249</v>
       </c>
@@ -2475,7 +2673,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>251</v>
       </c>
@@ -2483,7 +2681,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>253</v>
       </c>
@@ -2491,7 +2689,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>255</v>
       </c>
@@ -2499,7 +2697,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>256</v>
       </c>
@@ -2507,7 +2705,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>258</v>
       </c>
@@ -2515,7 +2713,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>260</v>
       </c>
@@ -2523,7 +2721,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>262</v>
       </c>
@@ -2531,7 +2729,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>264</v>
       </c>
@@ -2539,7 +2737,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>266</v>
       </c>
@@ -2547,7 +2745,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>268</v>
       </c>
@@ -2555,7 +2753,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>270</v>
       </c>
@@ -2563,7 +2761,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>271</v>
       </c>
@@ -2571,7 +2769,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>273</v>
       </c>
@@ -2579,7 +2777,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>273</v>
       </c>
@@ -2587,7 +2785,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>276</v>
       </c>
@@ -2595,7 +2793,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>278</v>
       </c>
@@ -2603,7 +2801,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>280</v>
       </c>
@@ -2611,7 +2809,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>282</v>
       </c>
@@ -2619,7 +2817,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>284</v>
       </c>
@@ -2627,7 +2825,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>285</v>
       </c>
@@ -2635,7 +2833,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>287</v>
       </c>
@@ -2643,7 +2841,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>288</v>
       </c>
@@ -2651,7 +2849,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>289</v>
       </c>
@@ -2659,7 +2857,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>291</v>
       </c>
@@ -2667,7 +2865,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>293</v>
       </c>
@@ -2675,7 +2873,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>294</v>
       </c>
@@ -2683,7 +2881,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>296</v>
       </c>
@@ -2691,7 +2889,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>298</v>
       </c>
@@ -2699,7 +2897,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>299</v>
       </c>
@@ -2707,7 +2905,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>301</v>
       </c>
@@ -2715,7 +2913,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>302</v>
       </c>
@@ -2723,7 +2921,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>304</v>
       </c>
@@ -2731,7 +2929,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>306</v>
       </c>
@@ -2739,7 +2937,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>308</v>
       </c>
@@ -2747,7 +2945,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>310</v>
       </c>
@@ -2755,7 +2953,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>312</v>
       </c>
@@ -2763,7 +2961,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>314</v>
       </c>
@@ -2771,7 +2969,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>316</v>
       </c>
@@ -2779,7 +2977,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>318</v>
       </c>
@@ -2787,7 +2985,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>320</v>
       </c>
@@ -2795,7 +2993,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>321</v>
       </c>
@@ -2803,7 +3001,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>323</v>
       </c>
@@ -2811,7 +3009,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>325</v>
       </c>
@@ -2819,7 +3017,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>327</v>
       </c>
@@ -2827,7 +3025,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>329</v>
       </c>
@@ -2835,7 +3033,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>331</v>
       </c>
@@ -2843,7 +3041,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>333</v>
       </c>
@@ -2851,7 +3049,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>335</v>
       </c>
@@ -2859,7 +3057,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>336</v>
       </c>
